--- a/samples/xlsx/spec/convo/Vorlage_Test_Bot_Mehr_Schritt_Dialoge.xlsx
+++ b/samples/xlsx/spec/convo/Vorlage_Test_Bot_Mehr_Schritt_Dialoge.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\CCO\CommercialEnabling\Info_DocMgmt\04Stab\CSInfomanagement\Johannes\Excel-Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="18885" windowHeight="9795" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="18885" windowHeight="9795" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Kündigungs-Dialoge" sheetId="1" r:id="rId1"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="353">
   <si>
     <t>User</t>
   </si>
@@ -87,9 +82,6 @@
     <t>Tarif</t>
   </si>
   <si>
-    <t>Für viele Tarife ist ein Tarifwechsel in der 3Kundenzone möglich. Bitte beachten Sie, dass Sie ab 6 Monate vor Ende Ihrer Mindestvertragsdauer auf einen Tarif innerhalb derselben oder zu einer niedrigeren Tarifgruppe wechseln können. Natürlich bleibt Ihre Rufnummer bei einem Tarifwechsel bestehen.Ein Tarifwechsel in eine höhere Tarifgruppe ist jederzeit möglich. Ihre aktuelle Tarifgruppe finden Sie ebenfalls in der 3Kundenzone. Ein Tarifwechsel wird immer erst zur nächsten Rechnungsperiode gültig. Ein Tarifwechsel von Sprach- auf Datentarif und umgekehrt ist nicht möglich. Können Sie den Tarifwechsel nicht in Ihrer 3Kundenzone durchführen oder haben Sie Fragen dann wenden Sie sich bitte an unser 3Service-Team.</t>
-  </si>
-  <si>
     <t>Zusatzpaket-Vertrag</t>
   </si>
   <si>
@@ -106,51 +98,6 @@
   </si>
   <si>
     <t>Es tut uns leid, dass Sie mit unserem Netz nicht zufrieden sind. Es kann vorkommen, dass an manchen Orten das 3Netz aus verschiedenen Gründen manchmal nicht optimal funktioniert oder Ihr Gerät nicht ideal eingestellt ist – bitte kontaktieren Sie meine Kollegen aus dem 3Service-Team, damit sie wir Ihren Fall individuell prüfen können. Möchten Sie das 3Service-Team kontaktieren?</t>
-  </si>
-  <si>
-    <r>
-      <t>Wenn Sie Ihren Vertrag kündigen möchten, beachten Sie bitte die laut AGB gültige Kündigungsfrist und bei Handy-Tarifen Ihre Mindestvertragsdauer. Details hierzu finden Sie auf Ihrem Servicevertrag oder in der </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2E7FAC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3Kundenzone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF373A3C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Ihr Kündigungsschreiben schicken Sie uns bitte per Post, Fax oder nutzen Sie hierfür das </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2E7FAC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kontaktformular</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF373A3C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>Sterbefall</t>
@@ -171,9 +118,6 @@
     <t>Zusatzpaket schriftlich kündigen</t>
   </si>
   <si>
-    <t>Wenn Sie Ihr Zusatzpaket schriftlich kündigen möchten, beachten Sie bitte die gültige Kündigungsfrist und gegebenenfalls die Bindefrist Ihres Zusatzpaketes. Details hierzu finden Sie auf Ihrem Servicevertrag oder in der 3Kundenzone . Ihr Kündigungsschreiben schicken Sie uns bitte per Post, Fax oder nutzen Sie hierfür das Kontaktformular.</t>
-  </si>
-  <si>
     <t>Umzug ins Ausland</t>
   </si>
   <si>
@@ -196,9 +140,6 @@
   </si>
   <si>
     <t>Ich wäre froh, wenn Sie Kunde bei Drei bleiben würden. Vielleicht können wir für Ihren Kündigungsgrund eine Lösung finden. Möchten Sie mit meinen Kollegen im 3Service-Team darüber sprechen?</t>
-  </si>
-  <si>
-    <t>Wenn Sie Ihren Vertrag kündigen möchten, beachten Sie bitte die laut AGB gültige Kündigungsfrist und bei Handy-Tarifen Ihre Mindestvertragsdauer. Details hierzu finden Sie auf Ihrem Servicevertrag oder in der 3Kundenzone. Ihr Kündigungsschreiben schicken Sie uns bitte per Post, Fax oder nutzen Sie hierfür das Kontaktformular .</t>
   </si>
   <si>
     <t>Kundenkennwort</t>
@@ -276,10 +217,6 @@
   </si>
   <si>
     <t>Wie logge ich mich zum ersten Mal in die 3Kundenzone ein</t>
-  </si>
-  <si>
-    <t>Wenn Sie sich als 3Kunde im 3Netz befinden können Sie automatisch ohne Login in die Kundenzone. Dennoch empfehlen wir eine Registrierung, da ein automatischer Login außerhalb des 3Netzes nicht möglich ist.
-Zusätzlich können Sie sich auf einem anderen Gerät einloggen, falls ein Verlust oder Diebstahl Ihres Gerätes erfolgt.</t>
   </si>
   <si>
     <t>Legen Sie Ihre 3SIM-Karte, die Sie für den Router, iPad etc. benutzen möchten, in ein SMS-fähiges Gerät. Lassen Sie sich einen SMS-Freischaltcode für das Login zusenden. Nun kann ein Passwort für Ihre 3Kundenzone angelegt werden.</t>
@@ -566,12 +503,6 @@
 EU/EWR-Bürger/innen und Schweizer Bürger-/innen benötigen zusätzlich eine Anmeldebescheinigung (Meldebestätigung).</t>
   </si>
   <si>
-    <t>Bei Bürgern eines eines Nicht-EU-/EWR-Staates werden zusätzliche Unterlagen (z.B. Aufenthaltstitel als auch die Anmeldebescheinigung (Meldebestätigung) benötigt.
-Bitte erkundigen Sie sich hierzu in Ihrem nächstgelegenen 3Shop oder telefonisch bei unserem 3Service-Team.
-3Shop in Ihrer Nähe finden
-3Service-Team kontaktieren</t>
-  </si>
-  <si>
     <t>Welche Unterlagen brauchen Nicht-EU/EWR Bürger?</t>
   </si>
   <si>
@@ -755,11 +686,6 @@
     <t>Ich brauch mein EU-Paket nicht mehr</t>
   </si>
   <si>
-    <t>Alle Kunden von Roaming Zusatzpaketen wurden qüber Änderungen zur Tarif-Nutzung im Ausland informiert.
-Jeder Kunde wurde gefragt, ob er sein Zusatzpaket behalten und weiterhin nutzen möchte.
-Nähere Informationen zu diesem Thema finden Sie auf unserer Roaming-Seite.</t>
-  </si>
-  <si>
     <t>Benötigen Sie ein Paket für Auslandstelefonie/-SMS?</t>
   </si>
   <si>
@@ -792,12 +718,6 @@
   </si>
   <si>
     <t>Roaming in der EU</t>
-  </si>
-  <si>
-    <t>Details zu Roaming in der Kundenzone nachsehen</t>
-  </si>
-  <si>
-    <t>Details zu Ihrem Tarif und Roaming können Sie hier in der Kundenzone nachsehen.</t>
   </si>
   <si>
     <t>Ich bin in China zahle ich das selbe wie in Österreich?</t>
@@ -896,9 +816,6 @@
   <si>
     <t>Sie können Ihre Adresse jederzeit selbst ändern.
 Das geht ganz einfach in Ihrer 3Kundenzone unter dem Punkt "Adresse verwalten". Dazu benötigen Sie lediglich Ihr 4-stelliges Kundenkennwort.</t>
-  </si>
-  <si>
-    <t>Meinten Sie die E-Mail-Adresse Ihres 3Mail-Accounts?</t>
   </si>
   <si>
     <t>Über die 3Box im Web</t>
@@ -1135,11 +1052,6 @@
     <t>Wo finde ich die Netzabdeckung?</t>
   </si>
   <si>
-    <t>Sie können die Netzabdeckung an Ihrer Adresse mit Hilfe unserer "Netzabfrage" hier überprüfen .
-Um LTE nutzen zu können, benötigen Sie ein LTE-fähiges Gerät und einen LTE-kompatiblen Tarif.
-Hier geht's zu unseren LTE-fähigen Geräten.</t>
-  </si>
-  <si>
     <t>Wo sehe ich, ob mein Tarif LTE beinhaltet?</t>
   </si>
   <si>
@@ -1314,12 +1226,94 @@
   <si>
     <t>Die NanoSIM-Karte ist eine Weiterentwicklung der MikroSIM-Karte und wird in der neuesten Generation von Smartphones genutzt (Bsp. iPhone 5). Sie ist auf einem eigenen SIM-Karten-Träger.
 Achtung: Brechen Sie die NanoSIM-Karte vorsichtig heraus, eine beschädigte SIM-Karte ist nicht funktionstüchtig.</t>
+  </si>
+  <si>
+    <t>Für viele Tarife ist ein Tarifwechsel in der 3Kundenzone möglich. Bitte beachten Sie, dass Sie ab 6 Monate vor Ende Ihrer Mindestvertragsdauer auf einen Tarif innerhalb derselben oder zu einer niedrigeren Tarifgruppe wechseln können. Natürlich bleibt Ihre Rufnummer bei einem Tarifwechsel bestehen. Ein Tarifwechsel in eine höhere Tarifgruppe ist jederzeit möglich. Ihre aktuelle Tarifgruppe finden Sie ebenfalls in der 3Kundenzone. Ein Tarifwechsel wird immer erst zur nächsten Rechnungsperiode gültig. Ein Tarifwechsel von Sprach- auf Datentarif und umgekehrt ist nicht möglich.
+Können Sie den Tarifwechsel nicht in Ihrer 3Kundenzone durchführen oder haben Sie Fragen dann wenden Sie sich bitte an unser 3Service-Team.</t>
+  </si>
+  <si>
+    <r>
+      <t>Wenn Sie Ihren Vertrag kündigen möchten, beachten Sie bitte die laut AGB gültige Kündigungsfrist und bei Handy-Tarifen Ihre Mindestvertragsdauer. Details hierzu finden Sie auf Ihrem Servicevertrag oder in d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er 3Kundenzone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Ihr Kündigungsschreiben schicken Sie uns bitte per Post, Fax oder nutzen Sie hierfür das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kontaktformular.</t>
+    </r>
+  </si>
+  <si>
+    <t>Wenn Sie sich als 3Kunde im 3Netz befinden können Sie automatisch ohne Login in die Kundenzone. Dennoch empfehlen wir eine Registrierung, da ein automatischer Login außerhalb des 3Netzes nicht möglich ist.Zusätzlich können Sie sich auf einem anderen Gerät einloggen, falls ein Verlust oder Diebstahl Ihres Gerätes erfolgt.</t>
+  </si>
+  <si>
+    <t>Wenden Sie sich mit Ihrem defekten Gerät bitte an einen 3Shop,
+3BestPartner oder 3Händler.
+Als Garantienachweis benötigen Sie Ihre Kaufrechnung oder den Lieferschein.
+Falls Bedarf besteht können Wir Ihnen bei Verfügbarkeit ein kostenfreies Leihgerät zur Verfügung stellen.
+Bitte beachten Sie:
+Das Gerät wird bei der Reparatur in den Originalzustand zurückgesetzt, somit werden sämliche persönliche Einstellungen sowie alle gespeicherten, persönlichen Daten dadurch gelöscht.
+Wir haften nicht für den Verlust oder die Wiederbeschaffung solcher verloren gegangener Daten. Speichern Sie vor der Reparatur Ihre Daten, zum Beispiel durch die 3Cloud.</t>
+  </si>
+  <si>
+    <t>Tarifdetails nachsehen</t>
+  </si>
+  <si>
+    <t>Ihre Tarifdetails können Sie hier in der Kundenzone nachsehen.</t>
+  </si>
+  <si>
+    <t>Ich bin ein virtueller Berater namens Troy. Meine Aufgabe ist es, Sie bestmöglich mit Informationen zu versorgen. Daher stehe ich Ihnen für Fragen gerne zur Verfügung.</t>
+  </si>
+  <si>
+    <t>Für viele Tarife ist ein Tarifwechsel in der 3Kundenzone möglich. Bitte beachten Sie, dass Sie ab 6 Monate vor Ende Ihrer Mindestvertragsdauer auf einen Tarif innerhalb derselben oder zu einer niedrigeren Tarifgruppe wechseln können. Natürlich bleibt Ihre Rufnummer bei einem Tarifwechsel bestehen. Ein Tarifwechsel in eine höhere Tarifgruppe ist jederzeit möglich. Ihre aktuelle Tarifgruppe finden Sie ebenfalls in der 3Kundenzone.
+Ein Tarifwechsel wird immer erst zur nächsten Rechnungsperiode gültig. Ein Tarifwechsel von Sprach- auf Datentarif und umgekehrt ist nicht möglich. Können Sie den Tarifwechsel nicht in Ihrer 3Kundenzone durchführen oder haben Sie Fragen dann wenden Sie sich bitte an unser 3Service-Team.</t>
+  </si>
+  <si>
+    <t>Wenn Sie Ihr Zusatzpaket schriftlich kündigen möchten, beachten Sie bitte die gültige Kündigungsfrist und gegebenenfalls die Bindefrist Ihres Zusatzpaketes. Details hierzu finden Sie auf Ihrem Servicevertrag oder in der 3Kundenzone. Ihr Kündigungsschreiben schicken Sie uns bitte per Post, Fax oder nutzen Sie hierfür das Kontaktformular.</t>
+  </si>
+  <si>
+    <t>Wenn Sie sich als 3Kunde im 3Netz befinden können Sie automatisch ohne Login in die Kundenzone. Dennoch empfehlen wir eine Registrierung, da ein automatischer Login außerhalb des 3Netzes nicht möglich ist. Zusätzlich können Sie sich auf einem anderen Gerät einloggen, falls ein Verlust oder Diebstahl Ihres Gerätes erfolgt.</t>
+  </si>
+  <si>
+    <t>Bei Bürgern eines eines Nicht-EU-/EWR-Staates werden zusätzliche Unterlagen (z.B. Aufenthaltstitel als auch die Anmeldebescheinigung (Meldebestätigung) benötigt.
+Bitte erkundigen Sie sich hierzu in Ihrem nächstgelegenen 3Shop oder telefonisch bei unserem 3Service-Team.</t>
+  </si>
+  <si>
+    <t>Wir haben alle Kunden von Roaming Zusatzpaketen  über Änderungen zur Tarif-Nutzung im Ausland informiert.
+Jeder Kunde wurde gefragt, ob er sein Zusatzpaket behalten und weiterhin nutzen möchte.
+Nähere Informationen zu diesem Thema finden Sie auf unserer Roaming-Seite.</t>
+  </si>
+  <si>
+    <t>Sie können die Netzabdeckung an Ihrer Adresse mit Hilfe unserer "Netzabfrage" hier überprüfen.
+Um LTE nutzen zu können, benötigen Sie ein LTE-fähiges Gerät und einen LTE-kompatiblen Tarif.
+Hier geht's zu unseren LTE-fähigen Geräten.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1338,21 +1332,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF373A3C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E7FAC"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1418,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1432,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1493,9 +1486,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1511,9 +1513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1551,9 +1553,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1588,7 +1590,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1623,7 +1625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1797,17 +1799,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="19"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="75.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1921,7 +1925,7 @@
     <row r="19" spans="1:2" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1970,10 +1974,10 @@
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1994,26 +1998,26 @@
     </row>
     <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2046,14 +2050,14 @@
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2062,10 +2066,10 @@
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>23</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2098,26 +2102,26 @@
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2138,26 +2142,26 @@
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2190,38 +2194,38 @@
     </row>
     <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2254,14 +2258,14 @@
     </row>
     <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="1:2" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2273,7 +2277,7 @@
     <row r="80" spans="1:2" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>38</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2325,7 +2329,7 @@
     <row r="89" spans="1:2" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2358,26 +2362,26 @@
     </row>
     <row r="95" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B97" s="17"/>
     </row>
     <row r="98" spans="1:2" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2410,14 +2414,14 @@
     </row>
     <row r="104" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2429,224 +2433,220 @@
     <row r="107" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3" t="s">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+    <row r="111" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3" t="s">
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+    <row r="113" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2" s="1" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A118" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3" t="s">
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+    <row r="120" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3" t="s">
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3" t="s">
-        <v>345</v>
-      </c>
+    <row r="122" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3" t="s">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="138" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3" t="s">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="1:2" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-    </row>
-    <row r="137" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="1:2" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+    <row r="140" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:2" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="1:2" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2658,11 +2658,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -2678,38 +2678,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,38 +2718,38 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,38 +2758,38 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,26 +2798,26 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2826,26 +2826,26 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,26 +2854,26 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,11 +3005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -3025,26 +3025,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,26 +3053,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,26 +3081,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,26 +3109,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,26 +3137,26 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,26 +3165,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,26 +3193,26 @@
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,26 +3221,26 @@
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="25" bestFit="1" customWidth="1"/>
@@ -3413,26 +3413,26 @@
     </row>
     <row r="2" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3441,26 +3441,26 @@
     </row>
     <row r="7" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3469,25 +3469,25 @@
     </row>
     <row r="12" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3496,26 +3496,26 @@
     </row>
     <row r="17" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3724,11 +3724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -3744,37 +3744,37 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>196</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,50 +3783,50 @@
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3835,26 +3835,26 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>206</v>
+        <v>344</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>207</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,38 +3863,38 @@
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,37 +3903,37 @@
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3942,26 +3942,26 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,26 +3970,26 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,26 +3998,26 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,26 +4026,26 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4054,26 +4054,26 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4114,11 +4114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD1048576"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="25" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="25" bestFit="1" customWidth="1"/>
@@ -4135,26 +4135,26 @@
     </row>
     <row r="2" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4163,26 +4163,26 @@
     </row>
     <row r="7" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4443,13 +4443,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="25" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="25" bestFit="1" customWidth="1"/>
@@ -4466,37 +4466,37 @@
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4505,38 +4505,38 @@
     </row>
     <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4545,139 +4545,139 @@
     </row>
     <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -4700,12 +4700,12 @@
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -4728,12 +4728,12 @@
       <c r="B51" s="22"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
@@ -4756,12 +4756,12 @@
       <c r="B58" s="22"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
@@ -4800,12 +4800,12 @@
       <c r="B69" s="22"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
@@ -4828,12 +4828,12 @@
       <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
@@ -4844,8 +4844,12 @@
       <c r="B80" s="22"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,11 +4860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
@@ -4876,26 +4880,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4904,26 +4908,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,26 +4936,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4960,26 +4964,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,25 +4992,25 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5015,26 +5019,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5043,50 +5047,50 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5095,36 +5099,36 @@
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5133,26 +5137,26 @@
     </row>
     <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -5236,11 +5240,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="25" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="25" bestFit="1" customWidth="1"/>
@@ -5257,26 +5261,26 @@
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5285,26 +5289,26 @@
     </row>
     <row r="7" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5313,26 +5317,26 @@
     </row>
     <row r="12" spans="1:2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5595,11 +5599,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
@@ -5615,26 +5619,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5643,38 +5647,38 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5683,14 +5687,14 @@
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5699,26 +5703,26 @@
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5727,25 +5731,25 @@
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5754,26 +5758,26 @@
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5782,26 +5786,26 @@
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5810,26 +5814,26 @@
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5838,26 +5842,26 @@
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5866,26 +5870,26 @@
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -5923,19 +5927,21 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5943,135 +5949,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="str">
+        <f>IF(D4=E4,"",D4&amp;"/"&amp;E4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6080,49 +6095,49 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6131,50 +6146,50 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -6183,14 +6198,14 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -6199,26 +6214,26 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -6227,26 +6242,26 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -6255,26 +6270,26 @@
     </row>
     <row r="57" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -6287,26 +6302,26 @@
     </row>
     <row r="63" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B65" s="6"/>
     </row>
     <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -6315,38 +6330,38 @@
     </row>
     <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B68" s="6"/>
     </row>
     <row r="69" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B70" s="6"/>
     </row>
     <row r="71" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B72" s="6"/>
     </row>
     <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -6355,38 +6370,38 @@
     </row>
     <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B75" s="6"/>
     </row>
     <row r="76" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B79" s="6"/>
     </row>
     <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6396,17 +6411,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="30.7109375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6419,26 +6436,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6447,26 +6464,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6475,238 +6492,240 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="E43" s="29"/>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -6715,62 +6734,62 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B58" s="6"/>
     </row>
     <row r="59" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -6779,38 +6798,38 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B65" s="6"/>
     </row>
     <row r="66" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B67" s="6"/>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B69" s="6"/>
     </row>
     <row r="70" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -6819,19 +6838,19 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B72" s="6"/>
     </row>
     <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B74" s="6"/>
     </row>
@@ -6841,26 +6860,26 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B76" s="6"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B78" s="6"/>
     </row>
     <row r="79" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -6869,50 +6888,50 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6929,7 +6948,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91.5703125" bestFit="1" customWidth="1"/>
@@ -6945,50 +6964,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,25 +7016,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,26 +7043,26 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7252,11 +7271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -7272,38 +7291,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7312,38 +7331,38 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7352,31 +7371,31 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" s="6"/>
     </row>
@@ -7395,7 +7414,7 @@
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,50 +7423,50 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7456,50 +7475,50 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,38 +7527,38 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,26 +7567,26 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7576,26 +7595,26 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B55" s="6"/>
     </row>
     <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>99</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -7684,7 +7703,7 @@
     </row>
     <row r="80" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B80" s="22"/>
     </row>
@@ -7713,10 +7732,10 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -7732,38 +7751,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7772,26 +7791,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7800,26 +7819,26 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="6" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8068,11 +8087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -8088,26 +8107,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8116,26 +8135,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8144,26 +8163,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8172,38 +8191,38 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8212,38 +8231,38 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8252,110 +8271,110 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8364,26 +8383,26 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8392,26 +8411,26 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8420,26 +8439,26 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8448,26 +8467,26 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B68" s="6"/>
     </row>
     <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8482,19 +8501,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8502,87 +8523,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="315" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="288.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="360" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
     </row>
@@ -8825,14 +8854,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8845,38 +8874,38 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>140</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8885,26 +8914,26 @@
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,50 +8942,50 @@
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8965,38 +8994,38 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9009,11 +9038,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -9029,38 +9058,38 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9069,26 +9098,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9097,26 +9126,26 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9125,26 +9154,26 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9153,26 +9182,26 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
